--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\new\data-driven cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\data-driven cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369EC57-982C-4B92-B8FD-889CA301B67F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394FA4D0-D357-4504-8A9B-CE7DE13841F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
     <t>2013-2016</t>
   </si>
   <si>
-    <t>Turkish Governtment</t>
-  </si>
-  <si>
     <t>Palaeontological Association</t>
-  </si>
-  <si>
-    <t>2nd Poster Prize</t>
   </si>
   <si>
     <t>award</t>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>Türkiye Burslari (scholarship for master studies)</t>
+  </si>
+  <si>
+    <t>Turkish Government</t>
+  </si>
+  <si>
+    <t>Poster Prize</t>
   </si>
 </sst>
 </file>
@@ -887,42 +887,42 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2018</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
